--- a/medicine/Mort/Cimetière_juif_de_Quatzenheim/Cimetière_juif_de_Quatzenheim.xlsx
+++ b/medicine/Mort/Cimetière_juif_de_Quatzenheim/Cimetière_juif_de_Quatzenheim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Quatzenheim</t>
+          <t>Cimetière_juif_de_Quatzenheim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière juif de Quatzenheim construit en 1793, est situé au bout de la rue Principale, à gauche de la route en direction de Wiwersheim  au coin de la rue de Dossenheim à Quatzenheim, une commune française du département du Bas-Rhin dans la région Grand Est.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_juif_de_Quatzenheim</t>
+          <t>Cimetière_juif_de_Quatzenheim</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quatzenheim était siège de rabbinat de 1880 à 1910. Le cimetière juif, construit en 1793 est toujours en service. Il est entouré d’un mur de grès.
 	Cimetière juif de Quatzenheim.
@@ -521,10 +535,45 @@
 Au nord-est se trouve la zone avec environ 50 pierres tombales du début du XXe siècle.
 La partie au sud-est est vide.
 Une monument commémoratif portant les noms des Juifs de Quatzenheim assassinés pendant la Shoah est situé à droite l'entrée principale. 
-Profanation du cimetière
-Dans la nuit du 18 au 19 février 2019, quatre-vingt-seize tombes sont profanées. 
-Les tombes ont été marquées de croix gammées bleues ou jaunes. Une sépulture porte l’inscription Elsassisches Schwarzen Wolfe (sic), ce qui signifie « Les loups noirs alsaciens »[1].
-Le président de la République Emmanuel Macron, accompagné du grand rabbin de France Haïm Korsia et du ministre de l’Intérieur Christophe Castaner, se recueillent le jour même devant les tombes[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimetière_juif_de_Quatzenheim</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_juif_de_Quatzenheim</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Profanation du cimetière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la nuit du 18 au 19 février 2019, quatre-vingt-seize tombes sont profanées. 
+Les tombes ont été marquées de croix gammées bleues ou jaunes. Une sépulture porte l’inscription Elsassisches Schwarzen Wolfe (sic), ce qui signifie « Les loups noirs alsaciens ».
+Le président de la République Emmanuel Macron, accompagné du grand rabbin de France Haïm Korsia et du ministre de l’Intérieur Christophe Castaner, se recueillent le jour même devant les tombes.
 </t>
         </is>
       </c>
